--- a/app/documents/BugReport.xlsx
+++ b/app/documents/BugReport.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>Номер дефекта</t>
   </si>
@@ -68,10 +68,14 @@
   <si>
     <t>1. Переходим в настройки девайса.
 2. Выбираем пункт меню Экран. 
-3. Меняем светлую тему на тёмную.</t>
-  </si>
-  <si>
-    <t>Инверсия цветов не работает, фон приложения по прежнему светлый, темным окрашены новости и выпадающие списки, цвет текста изменен с черного на белый и еле заметен на бежевом фоне функциональных панелий и разноцветных полях цитат</t>
+3. Меняем светлую тему на тёмную.
+4. Запускаем приложение.
+5. Переходим в новостной раздел меню приложения.
+6. Переходим в раздел приложения "Наша миссия".</t>
+  </si>
+  <si>
+    <t>В новостном разделе меню приложения инверсия цветов работает частично, фон приложения по прежнему светлый, темным окрашены только новости и выпадающие списки, цвет кнопок функциональных панелей изменен с черного на белый и еле заметен на бежевом фоне, цвет текста заголовков и содержания новостных карточек изменен с черного на белый, а заголовков страниц без изменений.
+В разделе приложения "Наша миссия" фон приложения по прежнему светлый, темным окрашены только карточки цитат и выпадающие списки, цвет текста цитат изменен с черного на белый и не заметен на разноцветных полях заголовков цитат.</t>
   </si>
   <si>
     <t>При переключении эмулятора на темную тему ОС, происходит Инверсия цветов, т.е. черный текст на белом фоне станет белым текстом на черном фоне.</t>
@@ -94,32 +98,34 @@
   <si>
     <t>1. Переходим в настройки девайса.
 2. Выбираем пункт меню Язык и ввод. 
-3. Меняем язык на Английский.</t>
-  </si>
-  <si>
-    <t>Заголовки и содержание цитат из раздела "Тематические цитаты" не переведены на системный язык</t>
-  </si>
-  <si>
-    <t>Все элементы, заголовки, содержание и описание новостных карточек и тематических цитат в приложении переведены на соответствующий язык используемый в телефоне.</t>
-  </si>
-  <si>
-    <t>Заголовки и содержание новостных карточек и цитат из раздела "Тематические цитаты" не переведен на язык ОС</t>
+3. Меняем язык на Английский.
+4. Запускаем приложение.
+5. Переходим в раздел приложения "Наша миссия".</t>
+  </si>
+  <si>
+    <t>Заголовки и содержание цитат из раздела приложения "Наша миссия" не переведены на системный язык (Английский).</t>
+  </si>
+  <si>
+    <t>Все элементы, заголовки, содержание и описание тематических цитат в разделе приложения "Наша миссия" переведены на соответствующий язык используемый в операционной системе.</t>
+  </si>
+  <si>
+    <t>Заголовки и содержание цитат из раздела "Наша миссия" не переведен на язык ОС</t>
   </si>
   <si>
     <t>3.</t>
   </si>
   <si>
-    <t xml:space="preserve">Формат даты создания и публикации извещения </t>
+    <t xml:space="preserve">Формат года из даты создания извещения </t>
   </si>
   <si>
     <t>Незначительная (Minor)</t>
   </si>
   <si>
-    <t>Формат даты создания и публикации извещения</t>
+    <t>Год из даты создания извещения имеет 5 значный формат</t>
   </si>
   <si>
     <t>1. Запускаем приложение.
-2. Переходим в новостной раздел.
+2. Переходим в новостной раздел меню приложения.
 3. Нажимаем кнопку редактирования новостей. 
 4. Нажимаем кнопку добавления новости.
 5. Выбираем категорию.
@@ -130,7 +136,7 @@
 10. Сохраняем новость.</t>
   </si>
   <si>
-    <t>Дата создания извещения не соответствует текущей дате</t>
+    <t>При создании новостного объявления год даты создания извещения не соответствует текущей дате и имеет 5 значный формат вместо 4х значного.</t>
   </si>
   <si>
     <t>Дата создания объявления должна быть равна текущей дате и году.</t>
@@ -152,7 +158,7 @@
 2. Swype вниз на главной странице приложения. </t>
   </si>
   <si>
-    <t>Вверху страницы появляется бесконечный лоадер обновленя новостного блока</t>
+    <t>При обновлении новостного блока используя Swype вниз, вверху "Главной" страницы приложения появляется бесконечный лоадер.</t>
   </si>
   <si>
     <t>Обновление списка новостей на главной странице приложения</t>
@@ -170,11 +176,11 @@
     <t>Низкая (Low)</t>
   </si>
   <si>
-    <t>Не реализована возможность переключения флага новостного статуса в режим не активен.</t>
+    <t>При создании нового объявления не реализована возможность переключения флага новостного статуса в режим не активен.</t>
   </si>
   <si>
     <t>1. Запускаем приложение.
-2. Переходим в новостной раздел.
+2. Переходим в новостной раздел меню приложения.
 3. Нажимаем кнопку редактирования новостей. 
 4. Нажимаем кнопку добавления новости.
 5. Выбираем категорию.
@@ -186,7 +192,7 @@
 11. Сохраняем новость.</t>
   </si>
   <si>
-    <t>Флаг переключения новостного статуса не активен, создание новости возможно только с активным статусом.</t>
+    <t>При создании новостного объявления флаг переключения статуса не активен, создание новости возможно только с активным статусом.</t>
   </si>
   <si>
     <t>Создается новость с неактивным статусом</t>
@@ -205,7 +211,7 @@
   </si>
   <si>
     <t>1. Запускаем приложение.
-2. Переходим в новостной раздел.
+2. Переходим в новостной раздел меню приложения.
 3. Нажимаем кнопку редактирования новостей. 
 4. Нажимаем кнопку добавления новости.
 5. Вводим произвольное название в графу выбора категории.
@@ -216,11 +222,11 @@
 10. Сохраняем новость.</t>
   </si>
   <si>
-    <t>Появляется сообщение об ошибке:
-Saving failed. Try again later.</t>
-  </si>
-  <si>
-    <t>Создается новость с произвольным статусом</t>
+    <t xml:space="preserve">Появляется сообщение об ошибке:
+Saving failed. Try again later, при попытке создания новости с произвольной категорией, не смотря на то, что при создании новости поле "Категория" помимо выбора из выпадающего списка предоставляет возможность введения альтернативной категории объявления. </t>
+  </si>
+  <si>
+    <t>Создается новость с произвольным статусом.</t>
   </si>
   <si>
     <t>Произвольная категория</t>
@@ -229,45 +235,52 @@
     <t xml:space="preserve">7. </t>
   </si>
   <si>
+    <t>Условия эксплуатации (пользователское соглашение)</t>
+  </si>
+  <si>
+    <t>Не работает ссылка на условия эксплуатации в разделе меню "О приложении"</t>
+  </si>
+  <si>
+    <t>1. Запускаем приложение.
+2. Переходим в раздел меню "О приложении".
+3. Переходим по ссылке "Пользовательское соглашение"</t>
+  </si>
+  <si>
+    <t>Длительное ожидание перехода по ссылке на страницу/ документ с условиями эксплуатации (пользователского соглашения) из раздела меню "О приложении" заканчивается появлением сообщения об ошибке:
+"504 Gateway Time-out".</t>
+  </si>
+  <si>
+    <t>Открывается страница либо документ "Пользовательское соглашение".</t>
+  </si>
+  <si>
     <t>Условия эксплуатации</t>
   </si>
   <si>
-    <t>Не работает ссылка на условия эксплуатации (пользователское соглашение)</t>
+    <t xml:space="preserve">8. </t>
+  </si>
+  <si>
+    <t>Политика конфиденциальности</t>
+  </si>
+  <si>
+    <t>Не работает ссылка на политику конфиденциальности в разделе меню "О приложении"</t>
   </si>
   <si>
     <t>1. Запускаем приложение.
-2. Переходим в раздел "О приложении".
-3. Переходим по ссылке "Пользовательское соглашение"</t>
-  </si>
-  <si>
-    <t>Появляется сообщение об ошибке:
-504 Gateway Time-out</t>
-  </si>
-  <si>
-    <t>Открывается страница либо документ "Пользователское соглашение".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. </t>
-  </si>
-  <si>
-    <t>Политика конфиденциальности</t>
-  </si>
-  <si>
-    <t>Не работает ссылка на политику конфиденциальности</t>
-  </si>
-  <si>
-    <t>1. Запускаем приложение.
-2. Переходим в раздел "О приложении".
+2. Переходим в раздел меню "О приложении".
 3. Переходим по ссылке "Политика конфиденциальности"</t>
   </si>
   <si>
+    <t>Длительное ожидание перехода по ссылке на страницу/ документ с политикой конфиденциальности из раздела меню "О приложении" заканчивается появлением сообщения об ошибке:
+"504 Gateway Time-out".</t>
+  </si>
+  <si>
     <t>Открывается страница либо документ "Политика конфиденциальности".</t>
   </si>
   <si>
     <t>9.</t>
   </si>
   <si>
-    <t>Автоматизированное удаление новостных карточек</t>
+    <t xml:space="preserve">Автоматизированное удаление новостных карточек (material card) </t>
   </si>
   <si>
     <t>Средняя (Medium)</t>
@@ -276,12 +289,12 @@
     <t>Эмулятор Google Pixel 7, Android 10 API 29, 6,71”/1440x3120 560dpi RAM 4, 4G LTE;</t>
   </si>
   <si>
-    <t>В новостных карточках (material card) используются универсальные идентификаторы для визуальных элементов удаления новостей</t>
+    <t>В новостных карточках "Панели управления" используются универсальные идентификаторы для визуальных элементов удаления новостей</t>
   </si>
   <si>
     <t>В автоматизированном режиме:
 1. Запускаем приложение.
-2. Переходим в новостной раздел.
+2. Переходим в новостной раздел меню приложения.
 3. Нажимаем кнопку редактирования новостей. 
 4. Нажимаем кнопку добавления новости.
 5. Выбираем категорию.
@@ -294,10 +307,10 @@
 12. Нажимаем на карточке визуальный элемент с текстом удалить.</t>
   </si>
   <si>
-    <t>При попытке автоматизированного удаления выбранной карточки по активной позиции или заголовку выдает ошибку найдено несколько одинаковых элементов</t>
-  </si>
-  <si>
-    <t>Новостная карточка удалена</t>
+    <t>Возникает ошибка с текстом "В иерархии элементов найдено несколько совпадений..." при попытке автоматизированного удаления одной из нескольких новостных карточек "Панели управления", выбранной (найденной) по уникальному заголовку, либо описанию или активной позиции.</t>
+  </si>
+  <si>
+    <t>Новостная карточка, выбранная (найденная) в автоматизированном режиме по уникальному заголовку, либо описанию или активной позиции из нескольких новостных карточек "Панели управления" удалена.</t>
   </si>
   <si>
     <t>Автоматизированное удаление</t>
@@ -306,15 +319,15 @@
     <t>10.</t>
   </si>
   <si>
-    <t>Автоматизированное редактирование новостных карточек</t>
-  </si>
-  <si>
-    <t>В новостных карточках (material card) используются универсальные идентификаторы для визуальных элементов редактирования новостей</t>
+    <t xml:space="preserve">Автоматизированное редактирование новостных карточек (material card) </t>
+  </si>
+  <si>
+    <t>В новостных карточках "Панели управления" используются универсальные идентификаторы для визуальных элементов редактирования новостей</t>
   </si>
   <si>
     <t>В автоматизированном режиме:
 1. Запускаем приложение.
-2. Переходим в новостной раздел.
+2. Переходим в новостной раздел меню приложения.
 3. Нажимаем кнопку редактирования новостей. 
 4. Нажимаем кнопку добавления новости.
 5. Выбираем категорию.
@@ -327,13 +340,16 @@
 12. Нажимаем на карточке визуальный элемент с текстом редактировать.</t>
   </si>
   <si>
-    <t>При попытке автоматизированного редактирования выбранной карточки по активной позиции или заголовку выдает ошибку найдено несколько одинаковых элементов</t>
-  </si>
-  <si>
-    <t>Открывается окно редактирования новостной карточки</t>
+    <t>Возникает ошибка с текстом "В иерархии элементов найдено несколько совпадений..." при попытке автоматизированного редактирования одной из нескольких новостных карточек "Панели управления", выбранной (найденной) по уникальному заголовку, либо описанию или активной позиции.</t>
+  </si>
+  <si>
+    <t>Открывается окно редактирования новостной карточки выбранной (найденной) в автоматизированном режиме по уникальному заголовку, либо описанию или активной позиции из нескольких новостных карточек "Панели управления".</t>
   </si>
   <si>
     <t>Автоматизированное редактирование</t>
+  </si>
+  <si>
+    <t>Дата создания извещения не соответствует текущей дате</t>
   </si>
 </sst>
 </file>
@@ -557,7 +573,7 @@
     <xdr:ext cx="14392275" cy="10601325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image12.jpg" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -590,7 +606,7 @@
     <xdr:ext cx="13620750" cy="9696450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.jpg" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image11.jpg" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -623,7 +639,7 @@
     <xdr:ext cx="2066925" cy="4295775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -651,7 +667,7 @@
     <xdr:ext cx="2066925" cy="4238625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -679,7 +695,7 @@
     <xdr:ext cx="2066925" cy="4238625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -707,7 +723,7 @@
     <xdr:ext cx="2066925" cy="4238625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -740,7 +756,7 @@
     <xdr:ext cx="2352675" cy="4838700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -773,7 +789,7 @@
     <xdr:ext cx="3533775" cy="5400675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -806,7 +822,7 @@
     <xdr:ext cx="2667000" cy="5610225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image6.jpg" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -837,6 +853,39 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2962275" cy="5248275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.jpg" title="Изображение"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2924175" cy="5172075"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image3.jpg" title="Изображение"/>
@@ -860,39 +909,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2924175" cy="5172075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg" title="Изображение"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
@@ -905,7 +921,7 @@
     <xdr:ext cx="3086100" cy="5438775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image4.jpg" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -977,7 +993,7 @@
     <col customWidth="1" min="3" max="3" width="25.13"/>
     <col customWidth="1" min="4" max="5" width="25.63"/>
     <col customWidth="1" min="6" max="6" width="36.0"/>
-    <col customWidth="1" min="7" max="7" width="23.75"/>
+    <col customWidth="1" min="7" max="7" width="45.63"/>
     <col customWidth="1" min="8" max="8" width="23.88"/>
     <col customWidth="1" min="9" max="9" width="32.38"/>
   </cols>
@@ -1011,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="179.25" customHeight="1">
+    <row r="2" ht="223.5" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" ht="144.0" customHeight="1">
+    <row r="7" ht="171.0" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -1211,15 +1227,15 @@
         <v>61</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="144.0" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>11</v>
@@ -1228,77 +1244,77 @@
         <v>12</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" ht="176.25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="169.5" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1333,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink display="Совместимость приложения с темной темой ОС" location="'БАГ 1'!A1" ref="I2"/>
-    <hyperlink display="Заголовки и содержание новостных карточек и цитат из раздела &quot;Тематические цитаты&quot; не переведен на язык ОС" location="'БАГ 2'!A1" ref="I3"/>
+    <hyperlink display="Заголовки и содержание цитат из раздела &quot;Наша миссия&quot; не переведен на язык ОС" location="'БАГ 2'!A1" ref="I3"/>
     <hyperlink display="Дата создания извещения" location="'БАГ 3'!A1" ref="I4"/>
     <hyperlink display="Бесконечный лоадер" location="'Баг 4'!A1" ref="I5"/>
     <hyperlink display="Флаг статуса неактивен" location="'Баг 5'!A1" ref="I6"/>
@@ -1405,7 +1421,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="Заголовки и содержание новостных карточек и цитат из раздела &quot;Тематические цитаты&quot; не переведен на язык ОС" location="'БАГ 2'!A1" ref="A1"/>
+    <hyperlink display="Заголовки и содержание цитат из раздела &quot;Наша миссия&quot; не переведен на язык ОС" location="'БАГ 2'!A1" ref="A1"/>
   </hyperlinks>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1423,7 +1439,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
